--- a/bilopt/Task_from_PVB.xlsx
+++ b/bilopt/Task_from_PVB.xlsx
@@ -735,7 +735,7 @@
         <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>3600</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="4">
